--- a/raw_data/head-width_measurements.xlsx
+++ b/raw_data/head-width_measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmg31\Box\Katy\Research\Experiments\Pteronarcys_Sulfate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmg31\Box\Katy\Research\experiments\sulfate\pteronarcys\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D10FFC4-782B-4683-8696-CF234DB2A832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F1656-C82C-430F-B64D-5F6385A0521E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E66FB248-15EF-43BB-B7CF-905D947A7F4E}"/>
   </bookViews>
@@ -1510,8 +1510,8 @@
   <dimension ref="A1:I3357"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3358" sqref="G3358"/>
+      <pane ySplit="1" topLeftCell="A2442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2455" sqref="H2455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61243,7 +61243,7 @@
         <v>10</v>
       </c>
       <c r="E2213" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F2213">
         <v>4.5</v>
